--- a/natmiOut/OldD2/LR-pairs_lrc2p/Rarres2-Ccrl2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Rarres2-Ccrl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -91,13 +97,7 @@
     <t>Ccrl2</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>66.37124347519109</v>
+        <v>0.878365</v>
       </c>
       <c r="H2">
-        <v>66.37124347519109</v>
+        <v>1.75673</v>
       </c>
       <c r="I2">
-        <v>0.8250811956818689</v>
+        <v>0.009452436795461589</v>
       </c>
       <c r="J2">
-        <v>0.8250811956818689</v>
+        <v>0.006670024516923835</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.73839857514898</v>
+        <v>1.763568</v>
       </c>
       <c r="N2">
-        <v>1.73839857514898</v>
+        <v>3.527136</v>
       </c>
       <c r="O2">
-        <v>0.02289516646850422</v>
+        <v>0.02290978408210595</v>
       </c>
       <c r="P2">
-        <v>0.02289516646850422</v>
+        <v>0.01556746793885094</v>
       </c>
       <c r="Q2">
-        <v>115.3796750881382</v>
+        <v>1.54905640632</v>
       </c>
       <c r="R2">
-        <v>115.3796750881382</v>
+        <v>6.196225625279999</v>
       </c>
       <c r="S2">
-        <v>0.01889037132516889</v>
+        <v>0.0002165532860337784</v>
       </c>
       <c r="T2">
-        <v>0.01889037132516889</v>
+        <v>0.0001038353928185616</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>66.37124347519109</v>
+        <v>0.878365</v>
       </c>
       <c r="H3">
-        <v>66.37124347519109</v>
+        <v>1.75673</v>
       </c>
       <c r="I3">
-        <v>0.8250811956818689</v>
+        <v>0.009452436795461589</v>
       </c>
       <c r="J3">
-        <v>0.8250811956818689</v>
+        <v>0.006670024516923835</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>29.1244456588663</v>
+        <v>0.2303916666666667</v>
       </c>
       <c r="N3">
-        <v>29.1244456588663</v>
+        <v>0.691175</v>
       </c>
       <c r="O3">
-        <v>0.3835766096422989</v>
+        <v>0.002992923061458282</v>
       </c>
       <c r="P3">
-        <v>0.3835766096422989</v>
+        <v>0.003050589671800379</v>
       </c>
       <c r="Q3">
-        <v>1933.025673904587</v>
+        <v>0.2023679762916666</v>
       </c>
       <c r="R3">
-        <v>1933.025673904587</v>
+        <v>1.21420785775</v>
       </c>
       <c r="S3">
-        <v>0.3164818477192655</v>
+        <v>2.829041607211381E-05</v>
       </c>
       <c r="T3">
-        <v>0.3164818477192655</v>
+        <v>2.034750790198316E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -664,49 +664,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>66.37124347519109</v>
+        <v>0.878365</v>
       </c>
       <c r="H4">
-        <v>66.37124347519109</v>
+        <v>1.75673</v>
       </c>
       <c r="I4">
-        <v>0.8250811956818689</v>
+        <v>0.009452436795461589</v>
       </c>
       <c r="J4">
-        <v>0.8250811956818689</v>
+        <v>0.006670024516923835</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.3582444564642</v>
+        <v>29.48720233333333</v>
       </c>
       <c r="N4">
-        <v>39.3582444564642</v>
+        <v>88.461607</v>
       </c>
       <c r="O4">
-        <v>0.518358431501594</v>
+        <v>0.3830560764552529</v>
       </c>
       <c r="P4">
-        <v>0.518358431501594</v>
+        <v>0.3904366689551331</v>
       </c>
       <c r="Q4">
-        <v>2612.255625576076</v>
+        <v>25.90052647751833</v>
       </c>
       <c r="R4">
-        <v>2612.255625576076</v>
+        <v>155.40315886511</v>
       </c>
       <c r="S4">
-        <v>0.4276877944551133</v>
+        <v>0.00362081335181078</v>
       </c>
       <c r="T4">
-        <v>0.4276877944551133</v>
+        <v>0.002604222154236813</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>66.37124347519109</v>
+        <v>0.878365</v>
       </c>
       <c r="H5">
-        <v>66.37124347519109</v>
+        <v>1.75673</v>
       </c>
       <c r="I5">
-        <v>0.8250811956818689</v>
+        <v>0.009452436795461589</v>
       </c>
       <c r="J5">
-        <v>0.8250811956818689</v>
+        <v>0.006670024516923835</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.19950756545612</v>
+        <v>39.68113433333333</v>
       </c>
       <c r="N5">
-        <v>3.19950756545612</v>
+        <v>119.043403</v>
       </c>
       <c r="O5">
-        <v>0.04213835617190307</v>
+        <v>0.5154812401391429</v>
       </c>
       <c r="P5">
-        <v>0.04213835617190307</v>
+        <v>0.52541335506604</v>
       </c>
       <c r="Q5">
-        <v>212.355295627604</v>
+        <v>34.85451955869833</v>
       </c>
       <c r="R5">
-        <v>212.355295627604</v>
+        <v>209.12711735219</v>
       </c>
       <c r="S5">
-        <v>0.03476756529438224</v>
+        <v>0.004872553841661405</v>
       </c>
       <c r="T5">
-        <v>0.03476756529438224</v>
+        <v>0.003504519959809695</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>66.37124347519109</v>
+        <v>0.878365</v>
       </c>
       <c r="H6">
-        <v>66.37124347519109</v>
+        <v>1.75673</v>
       </c>
       <c r="I6">
-        <v>0.8250811956818689</v>
+        <v>0.009452436795461589</v>
       </c>
       <c r="J6">
-        <v>0.8250811956818689</v>
+        <v>0.006670024516923835</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.50803162892436</v>
+        <v>3.214594333333333</v>
       </c>
       <c r="N6">
-        <v>2.50803162892436</v>
+        <v>9.643782999999999</v>
       </c>
       <c r="O6">
-        <v>0.03303143621569984</v>
+        <v>0.04175946835519128</v>
       </c>
       <c r="P6">
-        <v>0.03303143621569984</v>
+        <v>0.04256407540331186</v>
       </c>
       <c r="Q6">
-        <v>166.4611778868188</v>
+        <v>2.823587151598333</v>
       </c>
       <c r="R6">
-        <v>166.4611778868188</v>
+        <v>16.94152290959</v>
       </c>
       <c r="S6">
-        <v>0.02725361688793902</v>
+        <v>0.0003947287352395239</v>
       </c>
       <c r="T6">
-        <v>0.02725361688793902</v>
+        <v>0.0002839034264802849</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>1.87994370540315</v>
+        <v>0.878365</v>
       </c>
       <c r="H7">
-        <v>1.87994370540315</v>
+        <v>1.75673</v>
       </c>
       <c r="I7">
-        <v>0.02337015428750287</v>
+        <v>0.009452436795461589</v>
       </c>
       <c r="J7">
-        <v>0.02337015428750287</v>
+        <v>0.006670024516923835</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.73839857514898</v>
+        <v>2.601923</v>
       </c>
       <c r="N7">
-        <v>1.73839857514898</v>
+        <v>5.203846</v>
       </c>
       <c r="O7">
-        <v>0.02289516646850422</v>
+        <v>0.03380050790684871</v>
       </c>
       <c r="P7">
-        <v>0.02289516646850422</v>
+        <v>0.02296784296486377</v>
       </c>
       <c r="Q7">
-        <v>3.26809145883313</v>
+        <v>2.285438095895</v>
       </c>
       <c r="R7">
-        <v>3.26809145883313</v>
+        <v>9.14175238358</v>
       </c>
       <c r="S7">
-        <v>0.0005350635728070059</v>
+        <v>0.0003194971646439871</v>
       </c>
       <c r="T7">
-        <v>0.0005350635728070059</v>
+        <v>0.000153196075676498</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.87994370540315</v>
+        <v>73.76562</v>
       </c>
       <c r="H8">
-        <v>1.87994370540315</v>
+        <v>221.29686</v>
       </c>
       <c r="I8">
-        <v>0.02337015428750287</v>
+        <v>0.7938213165688949</v>
       </c>
       <c r="J8">
-        <v>0.02337015428750287</v>
+        <v>0.8402289946196978</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.1244456588663</v>
+        <v>1.763568</v>
       </c>
       <c r="N8">
-        <v>29.1244456588663</v>
+        <v>3.527136</v>
       </c>
       <c r="O8">
-        <v>0.3835766096422989</v>
+        <v>0.02290978408210595</v>
       </c>
       <c r="P8">
-        <v>0.3835766096422989</v>
+        <v>0.01556746793885094</v>
       </c>
       <c r="Q8">
-        <v>54.7523182897418</v>
+        <v>130.09068693216</v>
       </c>
       <c r="R8">
-        <v>54.7523182897418</v>
+        <v>780.54412159296</v>
       </c>
       <c r="S8">
-        <v>0.008964244548417788</v>
+        <v>0.01818627496236645</v>
       </c>
       <c r="T8">
-        <v>0.008964244548417788</v>
+        <v>0.01308023793503511</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.87994370540315</v>
+        <v>73.76562</v>
       </c>
       <c r="H9">
-        <v>1.87994370540315</v>
+        <v>221.29686</v>
       </c>
       <c r="I9">
-        <v>0.02337015428750287</v>
+        <v>0.7938213165688949</v>
       </c>
       <c r="J9">
-        <v>0.02337015428750287</v>
+        <v>0.8402289946196978</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>39.3582444564642</v>
+        <v>0.2303916666666667</v>
       </c>
       <c r="N9">
-        <v>39.3582444564642</v>
+        <v>0.691175</v>
       </c>
       <c r="O9">
-        <v>0.518358431501594</v>
+        <v>0.002992923061458282</v>
       </c>
       <c r="P9">
-        <v>0.518358431501594</v>
+        <v>0.003050589671800379</v>
       </c>
       <c r="Q9">
-        <v>73.99128392164829</v>
+        <v>16.9949841345</v>
       </c>
       <c r="R9">
-        <v>73.99128392164829</v>
+        <v>152.9548572105</v>
       </c>
       <c r="S9">
-        <v>0.01211411652042024</v>
+        <v>0.002375846125036221</v>
       </c>
       <c r="T9">
-        <v>0.01211411652042024</v>
+        <v>0.002563193892934066</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.87994370540315</v>
+        <v>73.76562</v>
       </c>
       <c r="H10">
-        <v>1.87994370540315</v>
+        <v>221.29686</v>
       </c>
       <c r="I10">
-        <v>0.02337015428750287</v>
+        <v>0.7938213165688949</v>
       </c>
       <c r="J10">
-        <v>0.02337015428750287</v>
+        <v>0.8402289946196978</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.19950756545612</v>
+        <v>29.48720233333333</v>
       </c>
       <c r="N10">
-        <v>3.19950756545612</v>
+        <v>88.461607</v>
       </c>
       <c r="O10">
-        <v>0.04213835617190307</v>
+        <v>0.3830560764552529</v>
       </c>
       <c r="P10">
-        <v>0.04213835617190307</v>
+        <v>0.3904366689551331</v>
       </c>
       <c r="Q10">
-        <v>6.014894108068989</v>
+        <v>2175.14176218378</v>
       </c>
       <c r="R10">
-        <v>6.014894108068989</v>
+        <v>19576.27585965402</v>
       </c>
       <c r="S10">
-        <v>0.0009847798851591236</v>
+        <v>0.3040780789314241</v>
       </c>
       <c r="T10">
-        <v>0.0009847798851591236</v>
+        <v>0.3280562098188352</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.87994370540315</v>
+        <v>73.76562</v>
       </c>
       <c r="H11">
-        <v>1.87994370540315</v>
+        <v>221.29686</v>
       </c>
       <c r="I11">
-        <v>0.02337015428750287</v>
+        <v>0.7938213165688949</v>
       </c>
       <c r="J11">
-        <v>0.02337015428750287</v>
+        <v>0.8402289946196978</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.50803162892436</v>
+        <v>39.68113433333333</v>
       </c>
       <c r="N11">
-        <v>2.50803162892436</v>
+        <v>119.043403</v>
       </c>
       <c r="O11">
-        <v>0.03303143621569984</v>
+        <v>0.5154812401391429</v>
       </c>
       <c r="P11">
-        <v>0.03303143621569984</v>
+        <v>0.52541335506604</v>
       </c>
       <c r="Q11">
-        <v>4.714958273748359</v>
+        <v>2927.10347640162</v>
       </c>
       <c r="R11">
-        <v>4.714958273748359</v>
+        <v>26343.93128761458</v>
       </c>
       <c r="S11">
-        <v>0.0007719497606987154</v>
+        <v>0.4091999967138211</v>
       </c>
       <c r="T11">
-        <v>0.0007719497606987154</v>
+        <v>0.4414675350869011</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.1908878812912</v>
+        <v>73.76562</v>
       </c>
       <c r="H12">
-        <v>12.1908878812912</v>
+        <v>221.29686</v>
       </c>
       <c r="I12">
-        <v>0.1515486500306282</v>
+        <v>0.7938213165688949</v>
       </c>
       <c r="J12">
-        <v>0.1515486500306282</v>
+        <v>0.8402289946196978</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.73839857514898</v>
+        <v>3.214594333333333</v>
       </c>
       <c r="N12">
-        <v>1.73839857514898</v>
+        <v>9.643782999999999</v>
       </c>
       <c r="O12">
-        <v>0.02289516646850422</v>
+        <v>0.04175946835519128</v>
       </c>
       <c r="P12">
-        <v>0.02289516646850422</v>
+        <v>0.04256407540331186</v>
       </c>
       <c r="Q12">
-        <v>21.19262212263759</v>
+        <v>237.12654404682</v>
       </c>
       <c r="R12">
-        <v>21.19262212263759</v>
+        <v>2134.13889642138</v>
       </c>
       <c r="S12">
-        <v>0.003469731570528319</v>
+        <v>0.03314955614893504</v>
       </c>
       <c r="T12">
-        <v>0.003469731570528319</v>
+        <v>0.03576357028304173</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.1908878812912</v>
+        <v>73.76562</v>
       </c>
       <c r="H13">
-        <v>12.1908878812912</v>
+        <v>221.29686</v>
       </c>
       <c r="I13">
-        <v>0.1515486500306282</v>
+        <v>0.7938213165688949</v>
       </c>
       <c r="J13">
-        <v>0.1515486500306282</v>
+        <v>0.8402289946196978</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.1244456588663</v>
+        <v>2.601923</v>
       </c>
       <c r="N13">
-        <v>29.1244456588663</v>
+        <v>5.203846</v>
       </c>
       <c r="O13">
-        <v>0.3835766096422989</v>
+        <v>0.03380050790684871</v>
       </c>
       <c r="P13">
-        <v>0.3835766096422989</v>
+        <v>0.02296784296486377</v>
       </c>
       <c r="Q13">
-        <v>355.0528516319973</v>
+        <v>191.93246328726</v>
       </c>
       <c r="R13">
-        <v>355.0528516319973</v>
+        <v>1151.59477972356</v>
       </c>
       <c r="S13">
-        <v>0.05813051737461564</v>
+        <v>0.02683156368731198</v>
       </c>
       <c r="T13">
-        <v>0.05813051737461564</v>
+        <v>0.01929824760295059</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>12.1908878812912</v>
+        <v>0.03164166666666667</v>
       </c>
       <c r="H14">
-        <v>12.1908878812912</v>
+        <v>0.094925</v>
       </c>
       <c r="I14">
-        <v>0.1515486500306282</v>
+        <v>0.00034050862029991</v>
       </c>
       <c r="J14">
-        <v>0.1515486500306282</v>
+        <v>0.0003604151333836133</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.3582444564642</v>
+        <v>1.763568</v>
       </c>
       <c r="N14">
-        <v>39.3582444564642</v>
+        <v>3.527136</v>
       </c>
       <c r="O14">
-        <v>0.518358431501594</v>
+        <v>0.02290978408210595</v>
       </c>
       <c r="P14">
-        <v>0.518358431501594</v>
+        <v>0.01556746793885094</v>
       </c>
       <c r="Q14">
-        <v>479.811945373206</v>
+        <v>0.05580223079999999</v>
       </c>
       <c r="R14">
-        <v>479.811945373206</v>
+        <v>0.3348133847999999</v>
       </c>
       <c r="S14">
-        <v>0.07855652052606041</v>
+        <v>7.800978969166737E-06</v>
       </c>
       <c r="T14">
-        <v>0.07855652052606041</v>
+        <v>5.610751033626087E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>12.1908878812912</v>
+        <v>0.03164166666666667</v>
       </c>
       <c r="H15">
-        <v>12.1908878812912</v>
+        <v>0.094925</v>
       </c>
       <c r="I15">
-        <v>0.1515486500306282</v>
+        <v>0.00034050862029991</v>
       </c>
       <c r="J15">
-        <v>0.1515486500306282</v>
+        <v>0.0003604151333836133</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>3.19950756545612</v>
+        <v>0.2303916666666667</v>
       </c>
       <c r="N15">
-        <v>3.19950756545612</v>
+        <v>0.691175</v>
       </c>
       <c r="O15">
-        <v>0.04213835617190307</v>
+        <v>0.002992923061458282</v>
       </c>
       <c r="P15">
-        <v>0.04213835617190307</v>
+        <v>0.003050589671800379</v>
       </c>
       <c r="Q15">
-        <v>39.00483800581852</v>
+        <v>0.007289976319444444</v>
       </c>
       <c r="R15">
-        <v>39.00483800581852</v>
+        <v>0.06560978687499999</v>
       </c>
       <c r="S15">
-        <v>0.006386010992361699</v>
+        <v>1.019116102320943E-06</v>
       </c>
       <c r="T15">
-        <v>0.006386010992361699</v>
+        <v>1.099478683460607E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,991 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.03164166666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.094925</v>
+      </c>
+      <c r="I16">
+        <v>0.00034050862029991</v>
+      </c>
+      <c r="J16">
+        <v>0.0003604151333836133</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>29.48720233333333</v>
+      </c>
+      <c r="N16">
+        <v>88.461607</v>
+      </c>
+      <c r="O16">
+        <v>0.3830560764552529</v>
+      </c>
+      <c r="P16">
+        <v>0.3904366689551331</v>
+      </c>
+      <c r="Q16">
+        <v>0.9330242271638888</v>
+      </c>
+      <c r="R16">
+        <v>8.397218044475</v>
+      </c>
+      <c r="S16">
+        <v>0.000130433896091275</v>
+      </c>
+      <c r="T16">
+        <v>0.000140719284119318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.03164166666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.094925</v>
+      </c>
+      <c r="I17">
+        <v>0.00034050862029991</v>
+      </c>
+      <c r="J17">
+        <v>0.0003604151333836133</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>39.68113433333333</v>
+      </c>
+      <c r="N17">
+        <v>119.043403</v>
+      </c>
+      <c r="O17">
+        <v>0.5154812401391429</v>
+      </c>
+      <c r="P17">
+        <v>0.52541335506604</v>
+      </c>
+      <c r="Q17">
+        <v>1.255577225530556</v>
+      </c>
+      <c r="R17">
+        <v>11.300195029775</v>
+      </c>
+      <c r="S17">
+        <v>0.0001755258058702661</v>
+      </c>
+      <c r="T17">
+        <v>0.0001893669244476586</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.03164166666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.094925</v>
+      </c>
+      <c r="I18">
+        <v>0.00034050862029991</v>
+      </c>
+      <c r="J18">
+        <v>0.0003604151333836133</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.214594333333333</v>
+      </c>
+      <c r="N18">
+        <v>9.643782999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.04175946835519128</v>
+      </c>
+      <c r="P18">
+        <v>0.04256407540331186</v>
+      </c>
+      <c r="Q18">
+        <v>0.1017151223638889</v>
+      </c>
+      <c r="R18">
+        <v>0.9154361012749999</v>
+      </c>
+      <c r="S18">
+        <v>1.421945895408394E-05</v>
+      </c>
+      <c r="T18">
+        <v>1.534073691383482E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.03164166666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.094925</v>
+      </c>
+      <c r="I19">
+        <v>0.00034050862029991</v>
+      </c>
+      <c r="J19">
+        <v>0.0003604151333836133</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.601923</v>
+      </c>
+      <c r="N19">
+        <v>5.203846</v>
+      </c>
+      <c r="O19">
+        <v>0.03380050790684871</v>
+      </c>
+      <c r="P19">
+        <v>0.02296784296486377</v>
+      </c>
+      <c r="Q19">
+        <v>0.08232918025833334</v>
+      </c>
+      <c r="R19">
+        <v>0.49397508155</v>
+      </c>
+      <c r="S19">
+        <v>1.150936431279725E-05</v>
+      </c>
+      <c r="T19">
+        <v>8.277958185715261E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3.730150333333334</v>
+      </c>
+      <c r="H20">
+        <v>11.190451</v>
+      </c>
+      <c r="I20">
+        <v>0.0401416384571372</v>
+      </c>
+      <c r="J20">
+        <v>0.04248836333724298</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.763568</v>
+      </c>
+      <c r="N20">
+        <v>3.527136</v>
+      </c>
+      <c r="O20">
+        <v>0.02290978408210595</v>
+      </c>
+      <c r="P20">
+        <v>0.01556746793885094</v>
+      </c>
+      <c r="Q20">
+        <v>6.578373763056001</v>
+      </c>
+      <c r="R20">
+        <v>39.470242578336</v>
+      </c>
+      <c r="S20">
+        <v>0.0009196362697549738</v>
+      </c>
+      <c r="T20">
+        <v>0.00066143623402678</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.730150333333334</v>
+      </c>
+      <c r="H21">
+        <v>11.190451</v>
+      </c>
+      <c r="I21">
+        <v>0.0401416384571372</v>
+      </c>
+      <c r="J21">
+        <v>0.04248836333724298</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.2303916666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.691175</v>
+      </c>
+      <c r="O21">
+        <v>0.002992923061458282</v>
+      </c>
+      <c r="P21">
+        <v>0.003050589671800379</v>
+      </c>
+      <c r="Q21">
+        <v>0.859395552213889</v>
+      </c>
+      <c r="R21">
+        <v>7.734559969925001</v>
+      </c>
+      <c r="S21">
+        <v>0.0001201408354630866</v>
+      </c>
+      <c r="T21">
+        <v>0.0001296145623682953</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.730150333333334</v>
+      </c>
+      <c r="H22">
+        <v>11.190451</v>
+      </c>
+      <c r="I22">
+        <v>0.0401416384571372</v>
+      </c>
+      <c r="J22">
+        <v>0.04248836333724298</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>29.48720233333333</v>
+      </c>
+      <c r="N22">
+        <v>88.461607</v>
+      </c>
+      <c r="O22">
+        <v>0.3830560764552529</v>
+      </c>
+      <c r="P22">
+        <v>0.3904366689551331</v>
+      </c>
+      <c r="Q22">
+        <v>109.9916976127508</v>
+      </c>
+      <c r="R22">
+        <v>989.9252785147571</v>
+      </c>
+      <c r="S22">
+        <v>0.01537649852987627</v>
+      </c>
+      <c r="T22">
+        <v>0.01658901505074855</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>12.1908878812912</v>
-      </c>
-      <c r="H16">
-        <v>12.1908878812912</v>
-      </c>
-      <c r="I16">
-        <v>0.1515486500306282</v>
-      </c>
-      <c r="J16">
-        <v>0.1515486500306282</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2.50803162892436</v>
-      </c>
-      <c r="N16">
-        <v>2.50803162892436</v>
-      </c>
-      <c r="O16">
-        <v>0.03303143621569984</v>
-      </c>
-      <c r="P16">
-        <v>0.03303143621569984</v>
-      </c>
-      <c r="Q16">
-        <v>30.57513239094901</v>
-      </c>
-      <c r="R16">
-        <v>30.57513239094901</v>
-      </c>
-      <c r="S16">
-        <v>0.005005869567062113</v>
-      </c>
-      <c r="T16">
-        <v>0.005005869567062113</v>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.730150333333334</v>
+      </c>
+      <c r="H23">
+        <v>11.190451</v>
+      </c>
+      <c r="I23">
+        <v>0.0401416384571372</v>
+      </c>
+      <c r="J23">
+        <v>0.04248836333724298</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>39.68113433333333</v>
+      </c>
+      <c r="N23">
+        <v>119.043403</v>
+      </c>
+      <c r="O23">
+        <v>0.5154812401391429</v>
+      </c>
+      <c r="P23">
+        <v>0.52541335506604</v>
+      </c>
+      <c r="Q23">
+        <v>148.0165964605281</v>
+      </c>
+      <c r="R23">
+        <v>1332.149368144753</v>
+      </c>
+      <c r="S23">
+        <v>0.02069226157310219</v>
+      </c>
+      <c r="T23">
+        <v>0.02232395353228576</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.730150333333334</v>
+      </c>
+      <c r="H24">
+        <v>11.190451</v>
+      </c>
+      <c r="I24">
+        <v>0.0401416384571372</v>
+      </c>
+      <c r="J24">
+        <v>0.04248836333724298</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.214594333333333</v>
+      </c>
+      <c r="N24">
+        <v>9.643782999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.04175946835519128</v>
+      </c>
+      <c r="P24">
+        <v>0.04256407540331186</v>
+      </c>
+      <c r="Q24">
+        <v>11.99092012401478</v>
+      </c>
+      <c r="R24">
+        <v>107.918281116133</v>
+      </c>
+      <c r="S24">
+        <v>0.00167629348087635</v>
+      </c>
+      <c r="T24">
+        <v>0.001808477900849721</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.730150333333334</v>
+      </c>
+      <c r="H25">
+        <v>11.190451</v>
+      </c>
+      <c r="I25">
+        <v>0.0401416384571372</v>
+      </c>
+      <c r="J25">
+        <v>0.04248836333724298</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.601923</v>
+      </c>
+      <c r="N25">
+        <v>5.203846</v>
+      </c>
+      <c r="O25">
+        <v>0.03380050790684871</v>
+      </c>
+      <c r="P25">
+        <v>0.02296784296486377</v>
+      </c>
+      <c r="Q25">
+        <v>9.705563945757669</v>
+      </c>
+      <c r="R25">
+        <v>58.23338367454601</v>
+      </c>
+      <c r="S25">
+        <v>0.001356807768064328</v>
+      </c>
+      <c r="T25">
+        <v>0.000975866056963872</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>14.5189385</v>
+      </c>
+      <c r="H26">
+        <v>29.037877</v>
+      </c>
+      <c r="I26">
+        <v>0.1562440995582063</v>
+      </c>
+      <c r="J26">
+        <v>0.1102522023927517</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.763568</v>
+      </c>
+      <c r="N26">
+        <v>3.527136</v>
+      </c>
+      <c r="O26">
+        <v>0.02290978408210595</v>
+      </c>
+      <c r="P26">
+        <v>0.01556746793885094</v>
+      </c>
+      <c r="Q26">
+        <v>25.605135332568</v>
+      </c>
+      <c r="R26">
+        <v>102.420541330272</v>
+      </c>
+      <c r="S26">
+        <v>0.003579518584981572</v>
+      </c>
+      <c r="T26">
+        <v>0.001716347625936868</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>14.5189385</v>
+      </c>
+      <c r="H27">
+        <v>29.037877</v>
+      </c>
+      <c r="I27">
+        <v>0.1562440995582063</v>
+      </c>
+      <c r="J27">
+        <v>0.1102522023927517</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.2303916666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.691175</v>
+      </c>
+      <c r="O27">
+        <v>0.002992923061458282</v>
+      </c>
+      <c r="P27">
+        <v>0.003050589671800379</v>
+      </c>
+      <c r="Q27">
+        <v>3.345042439245833</v>
+      </c>
+      <c r="R27">
+        <v>20.070254635475</v>
+      </c>
+      <c r="S27">
+        <v>0.0004676265687845396</v>
+      </c>
+      <c r="T27">
+        <v>0.0003363342299125734</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>14.5189385</v>
+      </c>
+      <c r="H28">
+        <v>29.037877</v>
+      </c>
+      <c r="I28">
+        <v>0.1562440995582063</v>
+      </c>
+      <c r="J28">
+        <v>0.1102522023927517</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>29.48720233333333</v>
+      </c>
+      <c r="N28">
+        <v>88.461607</v>
+      </c>
+      <c r="O28">
+        <v>0.3830560764552529</v>
+      </c>
+      <c r="P28">
+        <v>0.3904366689551331</v>
+      </c>
+      <c r="Q28">
+        <v>428.1228772147232</v>
+      </c>
+      <c r="R28">
+        <v>2568.737263288339</v>
+      </c>
+      <c r="S28">
+        <v>0.05985025174605043</v>
+      </c>
+      <c r="T28">
+        <v>0.04304650264719314</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>14.5189385</v>
+      </c>
+      <c r="H29">
+        <v>29.037877</v>
+      </c>
+      <c r="I29">
+        <v>0.1562440995582063</v>
+      </c>
+      <c r="J29">
+        <v>0.1102522023927517</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>39.68113433333333</v>
+      </c>
+      <c r="N29">
+        <v>119.043403</v>
+      </c>
+      <c r="O29">
+        <v>0.5154812401391429</v>
+      </c>
+      <c r="P29">
+        <v>0.52541335506604</v>
+      </c>
+      <c r="Q29">
+        <v>576.1279489959052</v>
+      </c>
+      <c r="R29">
+        <v>3456.767693975431</v>
+      </c>
+      <c r="S29">
+        <v>0.0805409022046879</v>
+      </c>
+      <c r="T29">
+        <v>0.05792797956259578</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>14.5189385</v>
+      </c>
+      <c r="H30">
+        <v>29.037877</v>
+      </c>
+      <c r="I30">
+        <v>0.1562440995582063</v>
+      </c>
+      <c r="J30">
+        <v>0.1102522023927517</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>3.214594333333333</v>
+      </c>
+      <c r="N30">
+        <v>9.643782999999999</v>
+      </c>
+      <c r="O30">
+        <v>0.04175946835519128</v>
+      </c>
+      <c r="P30">
+        <v>0.04256407540331186</v>
+      </c>
+      <c r="Q30">
+        <v>46.67249742811516</v>
+      </c>
+      <c r="R30">
+        <v>280.034984568691</v>
+      </c>
+      <c r="S30">
+        <v>0.006524670531186274</v>
+      </c>
+      <c r="T30">
+        <v>0.004692783056026285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>14.5189385</v>
+      </c>
+      <c r="H31">
+        <v>29.037877</v>
+      </c>
+      <c r="I31">
+        <v>0.1562440995582063</v>
+      </c>
+      <c r="J31">
+        <v>0.1102522023927517</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.601923</v>
+      </c>
+      <c r="N31">
+        <v>5.203846</v>
+      </c>
+      <c r="O31">
+        <v>0.03380050790684871</v>
+      </c>
+      <c r="P31">
+        <v>0.02296784296486377</v>
+      </c>
+      <c r="Q31">
+        <v>37.77716001873551</v>
+      </c>
+      <c r="R31">
+        <v>151.108640074942</v>
+      </c>
+      <c r="S31">
+        <v>0.00528112992251561</v>
+      </c>
+      <c r="T31">
+        <v>0.0025322552710871</v>
       </c>
     </row>
   </sheetData>
